--- a/src/test/java/com/invicta/qa/excel/Data.xlsx
+++ b/src/test/java/com/invicta/qa/excel/Data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QDMS\QDMS-AUTOMATION\src\test\java\com\invicta\qa\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation_Workspace\QDMS-AUTOMATION\src\test\java\com\invicta\qa\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592E4D74-D64E-4222-B505-CB6EB8786404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034C4210-5CAC-481D-858B-1717384B77D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Sbu" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>admin</t>
   </si>
@@ -34,6 +35,12 @@
   </si>
   <si>
     <t>http://qa-automation-release.s3-website-us-east-1.amazonaws.com/#/login</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>sbuhundrad</t>
   </si>
 </sst>
 </file>
@@ -364,7 +371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -392,4 +399,30 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D7F6E4-80DF-4B95-BD7C-B1575A9D3EE9}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>